--- a/biology/Botanique/Lemon_Pillar/Lemon_Pillar.xlsx
+++ b/biology/Botanique/Lemon_Pillar/Lemon_Pillar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Lemon Pillar' est un cultivar de rosier grimpant obtenu en 1915[1] par le rosiériste anglais George Paul. Il est issu d'un croisement 'Frau Karl Druschki' (Lambert, 1901) x 'Maréchal Niel' (Pradel, 1864)[2]. Cette variété est toujours présente dans les catalogues internationaux grâce à la somptuosité de sa floraison et à la grosseur remarquable de ses fleurs.
+'Lemon Pillar' est un cultivar de rosier grimpant obtenu en 1915 par le rosiériste anglais George Paul. Il est issu d'un croisement 'Frau Karl Druschki' (Lambert, 1901) x 'Maréchal Niel' (Pradel, 1864). Cette variété est toujours présente dans les catalogues internationaux grâce à la somptuosité de sa floraison et à la grosseur remarquable de ses fleurs.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier vigoureux au port raide s'élève jusqu'à 4 mètres en moyenne, parfois plus[1]. Il présente de grosses fleurs doubles (26-40 pétales) parfumées aux nuances ivoire et citron, de plus en plus claires au fur et à mesure. Les fleurs globuleuses et pleines sont parfaitement turbinées[3], puis la corolle s'épanouit en grande rosette de 10 cm de diamètre[4].
-La floraison unique est abondante en juin-juillet, mais peut présenter une très légère remontée à la fin de l'été pour les sujets âgés. Il supporte la mi-ombre et la chaleur. Son feuillage est vert foncé et ses rameaux, épineux. Très rustique, il a besoin de peu de soins et supporte les hivers à -15°/-20°[1] et les sols calcaires.
-C'est toujours un grand succès au Royaume-Uni et Outre-Atlantique. Il couvre murs et treillis avec bonheur[5]. Il est qualifié comme l'un des plus beaux rosiers grimpants du XXe siècle[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier vigoureux au port raide s'élève jusqu'à 4 mètres en moyenne, parfois plus. Il présente de grosses fleurs doubles (26-40 pétales) parfumées aux nuances ivoire et citron, de plus en plus claires au fur et à mesure. Les fleurs globuleuses et pleines sont parfaitement turbinées, puis la corolle s'épanouit en grande rosette de 10 cm de diamètre.
+La floraison unique est abondante en juin-juillet, mais peut présenter une très légère remontée à la fin de l'été pour les sujets âgés. Il supporte la mi-ombre et la chaleur. Son feuillage est vert foncé et ses rameaux, épineux. Très rustique, il a besoin de peu de soins et supporte les hivers à -15°/-20° et les sols calcaires.
+C'est toujours un grand succès au Royaume-Uni et Outre-Atlantique. Il couvre murs et treillis avec bonheur. Il est qualifié comme l'un des plus beaux rosiers grimpants du XXe siècle.
 </t>
         </is>
       </c>
